--- a/bin/testData/testData.xlsx
+++ b/bin/testData/testData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandoito/eclipse-workspace/TownSend/src/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C4D66AE-79B6-6844-93B0-FA74EA4C06C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE65133-F374-864A-A434-F49CC4CA031B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{9CCB246B-7C07-5D44-9585-9FF13C513735}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -52,12 +52,16 @@
   </si>
   <si>
     <t>Skywalker</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -406,7 +410,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,6 +439,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
